--- a/biology/Zoologie/Cephalotes_multispinosus/Cephalotes_multispinosus.xlsx
+++ b/biology/Zoologie/Cephalotes_multispinosus/Cephalotes_multispinosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes multispinosus est une espèce de fourmis arboricoles du genre Cephalotes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes multispinosus est une espèce de fourmis arboricoles du genre Cephalotes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cephalotes multispinosus a été initialement décrite en 1868 par l'entomologiste américain Edward Norton (d) (1823-1894) sous le protonyme de Cryptocerus multispinosus[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cephalotes multispinosus a été initialement décrite en 1868 par l'entomologiste américain Edward Norton (d) (1823-1894) sous le protonyme de Cryptocerus multispinosus. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la majeure partie de l'Amérique centrale, de l’État mexicain de Nayarit au Nord, jusqu'au Panama, au Sud[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la majeure partie de l'Amérique centrale, de l’État mexicain de Nayarit au Nord, jusqu'au Panama, au Sud.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, Cephalotes multispinosus se caractérise par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que ses cousines terrestres[5]. Elle peut ainsi se déplacer d'un arbre à un autre dans une forêt[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, Cephalotes multispinosus se caractérise par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que ses cousines terrestres. Elle peut ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
